--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_111_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_111_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.55887447083003, 5.181196559704212]</t>
+          <t>[4.559953344807964, 5.1801176857262785]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.17832803062560032, 0.49370676986750617]</t>
+          <t>[0.17827962373361927, 0.4937551767594872]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>9.297107244510272e-05</v>
+        <v>9.336260196435298e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>9.297107244510272e-05</v>
+        <v>9.336260196435298e-05</v>
       </c>
       <c r="W2" t="n">
         <v>20.75911911911962</v>
